--- a/_FP MARS 2024.xlsx
+++ b/_FP MARS 2024.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CE PC\Desktop\FicheDePaie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060E4654-4F0F-443A-8054-311287D10A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7128FCB1-E137-4BB4-8AC6-A4EC65514D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{25E4994C-8E9E-4ECC-B9A0-7F9C6FE4CE15}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{25E4994C-8E9E-4ECC-B9A0-7F9C6FE4CE15}"/>
   </bookViews>
   <sheets>
     <sheet name="SUD" sheetId="5" r:id="rId1"/>
     <sheet name="FICHE DE PAIE MARS 2024" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SUD!$A$14:$AJ$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SUD!$A$1:$AF$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SUD!$A$14:$AK$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SUD!$A$1:$AG$15</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>VIREMENT</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>Août</t>
+  </si>
+  <si>
+    <t>Autre allocation</t>
   </si>
 </sst>
 </file>
@@ -612,7 +615,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -788,55 +791,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -853,6 +808,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2039,10 +2048,10 @@
     <tabColor theme="9" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI32"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="O5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2070,14 +2079,14 @@
     <col min="27" max="27" width="7.85546875" style="1" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="12.28515625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="29" max="29" width="10.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="9.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="16384" width="11.42578125" style="1"/>
+    <col min="30" max="31" width="9.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="4" customFormat="1" ht="12.75">
+    <row r="1" spans="1:36" s="4" customFormat="1" ht="12.75">
       <c r="A1" s="12"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -2105,12 +2114,13 @@
       <c r="AB1" s="10"/>
       <c r="AC1" s="11"/>
       <c r="AD1" s="10"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AG1" s="18"/>
       <c r="AH1" s="10"/>
       <c r="AI1" s="10"/>
-    </row>
-    <row r="2" spans="1:35" s="4" customFormat="1" ht="12.75">
+      <c r="AJ1" s="10"/>
+    </row>
+    <row r="2" spans="1:36" s="4" customFormat="1" ht="12.75">
       <c r="A2" s="17"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2138,12 +2148,13 @@
       <c r="AB2" s="10"/>
       <c r="AC2" s="11"/>
       <c r="AD2" s="10"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AG2" s="18"/>
       <c r="AH2" s="10"/>
       <c r="AI2" s="10"/>
-    </row>
-    <row r="3" spans="1:35" s="4" customFormat="1" ht="12.75">
+      <c r="AJ2" s="10"/>
+    </row>
+    <row r="3" spans="1:36" s="4" customFormat="1" ht="12.75">
       <c r="A3" s="17"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -2171,17 +2182,18 @@
       <c r="AB3" s="10"/>
       <c r="AC3" s="11"/>
       <c r="AD3" s="10"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AG3" s="18"/>
       <c r="AH3" s="10"/>
       <c r="AI3" s="10"/>
-    </row>
-    <row r="4" spans="1:35" s="4" customFormat="1" ht="12.75">
+      <c r="AJ3" s="10"/>
+    </row>
+    <row r="4" spans="1:36" s="4" customFormat="1" ht="12.75">
       <c r="A4" s="17"/>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="106"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -2208,12 +2220,13 @@
       <c r="AB4" s="10"/>
       <c r="AC4" s="11"/>
       <c r="AD4" s="10"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AG4" s="18"/>
       <c r="AH4" s="10"/>
       <c r="AI4" s="10"/>
-    </row>
-    <row r="5" spans="1:35" s="4" customFormat="1" ht="12.75">
+      <c r="AJ4" s="10"/>
+    </row>
+    <row r="5" spans="1:36" s="4" customFormat="1" ht="12.75">
       <c r="A5" s="12"/>
       <c r="C5" s="14" t="s">
         <v>34</v>
@@ -2244,12 +2257,13 @@
       <c r="AB5" s="10"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="10"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="19"/>
+      <c r="AE5" s="10"/>
+      <c r="AG5" s="18"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
-    </row>
-    <row r="6" spans="1:35" s="4" customFormat="1" ht="12.75">
+      <c r="AJ5" s="19"/>
+    </row>
+    <row r="6" spans="1:36" s="4" customFormat="1" ht="12.75">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -2258,10 +2272,10 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -2280,12 +2294,13 @@
       <c r="AB6" s="10"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="10"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="20"/>
+      <c r="AE6" s="10"/>
+      <c r="AG6" s="18"/>
       <c r="AH6" s="20"/>
       <c r="AI6" s="20"/>
-    </row>
-    <row r="7" spans="1:35" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AJ6" s="20"/>
+    </row>
+    <row r="7" spans="1:36" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="12"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -2300,9 +2315,9 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
@@ -2313,9 +2328,10 @@
       <c r="AB7" s="10"/>
       <c r="AC7" s="11"/>
       <c r="AD7" s="10"/>
-      <c r="AF7" s="18"/>
-    </row>
-    <row r="8" spans="1:35" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AE7" s="10"/>
+      <c r="AG7" s="18"/>
+    </row>
+    <row r="8" spans="1:36" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
       <c r="C8" s="10"/>
       <c r="E8" s="10"/>
@@ -2344,13 +2360,14 @@
       <c r="AB8" s="10"/>
       <c r="AC8" s="11"/>
       <c r="AD8" s="10"/>
-      <c r="AE8" s="18"/>
+      <c r="AE8" s="10"/>
       <c r="AF8" s="18"/>
-      <c r="AG8" s="13"/>
+      <c r="AG8" s="18"/>
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
-    </row>
-    <row r="9" spans="1:35" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AJ8" s="13"/>
+    </row>
+    <row r="9" spans="1:36" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -2378,13 +2395,14 @@
       <c r="AB9" s="10"/>
       <c r="AC9" s="11"/>
       <c r="AD9" s="10"/>
-      <c r="AE9" s="18"/>
+      <c r="AE9" s="10"/>
       <c r="AF9" s="18"/>
-      <c r="AG9" s="13"/>
+      <c r="AG9" s="18"/>
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
-    </row>
-    <row r="10" spans="1:35" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AJ9" s="13"/>
+    </row>
+    <row r="10" spans="1:36" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="12"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -2418,13 +2436,14 @@
       <c r="AB10" s="10"/>
       <c r="AC10" s="11"/>
       <c r="AD10" s="10"/>
-      <c r="AE10" s="18"/>
+      <c r="AE10" s="10"/>
       <c r="AF10" s="18"/>
-      <c r="AG10" s="13"/>
+      <c r="AG10" s="18"/>
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
-    </row>
-    <row r="11" spans="1:35" s="4" customFormat="1" ht="12.75">
+      <c r="AJ10" s="13"/>
+    </row>
+    <row r="11" spans="1:36" s="4" customFormat="1" ht="12.75">
       <c r="A11" s="12"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -2452,172 +2471,177 @@
       <c r="AB11" s="10"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="10"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AG11" s="18"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
-    </row>
-    <row r="12" spans="1:35" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A12" s="109" t="s">
+      <c r="AJ11" s="10"/>
+    </row>
+    <row r="12" spans="1:36" s="4" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A12" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="F12" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="88" t="s">
+      <c r="G12" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="88" t="s">
+      <c r="H12" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="95" t="s">
+      <c r="I12" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="88" t="s">
+      <c r="J12" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="88" t="s">
+      <c r="K12" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="88" t="s">
+      <c r="L12" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="88" t="s">
+      <c r="M12" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="88" t="s">
+      <c r="N12" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="88" t="s">
+      <c r="O12" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="88" t="s">
+      <c r="P12" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="88" t="s">
+      <c r="Q12" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="R12" s="95" t="s">
+      <c r="R12" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="S12" s="98" t="s">
+      <c r="S12" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="T12" s="99"/>
-      <c r="U12" s="98" t="s">
+      <c r="T12" s="111"/>
+      <c r="U12" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="V12" s="99"/>
-      <c r="W12" s="88" t="s">
+      <c r="V12" s="111"/>
+      <c r="W12" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="X12" s="95" t="s">
+      <c r="X12" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" s="95" t="s">
+      <c r="Y12" s="102" t="s">
         <v>13</v>
       </c>
       <c r="Z12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AA12" s="88" t="s">
+      <c r="AA12" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="AB12" s="88" t="s">
+      <c r="AB12" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="AC12" s="102" t="s">
+      <c r="AC12" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="AD12" s="88" t="s">
+      <c r="AD12" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AE12" s="102" t="s">
+      <c r="AE12" s="88"/>
+      <c r="AF12" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="AF12" s="103" t="s">
+      <c r="AG12" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="AG12" s="92" t="s">
+      <c r="AH12" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="AH12" s="92" t="s">
+      <c r="AI12" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="AI12" s="92" t="s">
+      <c r="AJ12" s="105" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="7" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A13" s="110"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="100"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
+    <row r="13" spans="1:36" s="7" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="103"/>
       <c r="Z13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="102"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="102"/>
-      <c r="AF13" s="104"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="93"/>
-    </row>
-    <row r="14" spans="1:35" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="97"/>
+      <c r="AA13" s="100"/>
+      <c r="AB13" s="100"/>
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="100"/>
+      <c r="AE13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF13" s="108"/>
+      <c r="AG13" s="97"/>
+      <c r="AH13" s="106"/>
+      <c r="AI13" s="106"/>
+      <c r="AJ13" s="106"/>
+    </row>
+    <row r="14" spans="1:36" s="4" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="104"/>
       <c r="S14" s="6" t="s">
         <v>3</v>
       </c>
@@ -2630,23 +2654,24 @@
       <c r="V14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="W14" s="90"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="104"/>
       <c r="Z14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="102"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="102"/>
-      <c r="AF14" s="105"/>
-      <c r="AG14" s="94"/>
-      <c r="AH14" s="94"/>
-      <c r="AI14" s="94"/>
-    </row>
-    <row r="15" spans="1:35" s="30" customFormat="1" ht="25.5" customHeight="1">
+      <c r="AA14" s="101"/>
+      <c r="AB14" s="101"/>
+      <c r="AC14" s="108"/>
+      <c r="AD14" s="101"/>
+      <c r="AE14" s="89"/>
+      <c r="AF14" s="108"/>
+      <c r="AG14" s="98"/>
+      <c r="AH14" s="107"/>
+      <c r="AI14" s="107"/>
+      <c r="AJ14" s="107"/>
+    </row>
+    <row r="15" spans="1:36" s="30" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="21" t="s">
         <v>80</v>
       </c>
@@ -2748,18 +2773,21 @@
         <v>168794</v>
       </c>
       <c r="AD15" s="24"/>
-      <c r="AE15" s="29">
+      <c r="AE15" s="24">
+        <v>20000</v>
+      </c>
+      <c r="AF15" s="29">
         <f>+AC15-AD15</f>
         <v>168794</v>
       </c>
-      <c r="AF15" s="21" t="s">
+      <c r="AG15" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="AG15" s="25"/>
       <c r="AH15" s="25"/>
       <c r="AI15" s="25"/>
-    </row>
-    <row r="16" spans="1:35" s="2" customFormat="1">
+      <c r="AJ15" s="25"/>
+    </row>
+    <row r="16" spans="1:36" s="2" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2777,10 +2805,10 @@
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="91"/>
-      <c r="U16" s="91"/>
-      <c r="V16" s="91"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
@@ -2789,9 +2817,10 @@
       <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
-      <c r="AE16" s="1"/>
-    </row>
-    <row r="17" spans="1:35">
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="1"/>
+    </row>
+    <row r="17" spans="1:36">
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="2"/>
@@ -2799,14 +2828,14 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="AE17" s="16"/>
-    </row>
-    <row r="18" spans="1:35">
+      <c r="AF17" s="16"/>
+    </row>
+    <row r="18" spans="1:36">
       <c r="K18" s="2"/>
       <c r="AB18" s="16"/>
-      <c r="AE18" s="15"/>
-    </row>
-    <row r="19" spans="1:35" s="2" customFormat="1">
+      <c r="AF18" s="15"/>
+    </row>
+    <row r="19" spans="1:36" s="2" customFormat="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2841,12 +2870,34 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
-    </row>
-    <row r="32" spans="1:35">
+      <c r="AJ19" s="1"/>
+    </row>
+    <row r="32" spans="1:36">
       <c r="F32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="AH12:AH14"/>
+    <mergeCell ref="AI12:AI14"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="Y12:Y14"/>
+    <mergeCell ref="AJ12:AJ14"/>
+    <mergeCell ref="AA12:AA14"/>
+    <mergeCell ref="AB12:AB14"/>
+    <mergeCell ref="AC12:AC14"/>
+    <mergeCell ref="AD12:AD14"/>
+    <mergeCell ref="AF12:AF14"/>
+    <mergeCell ref="AG12:AG14"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="R7:T7"/>
@@ -2863,27 +2914,6 @@
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="O12:O14"/>
-    <mergeCell ref="AI12:AI14"/>
-    <mergeCell ref="AA12:AA14"/>
-    <mergeCell ref="AB12:AB14"/>
-    <mergeCell ref="AC12:AC14"/>
-    <mergeCell ref="AD12:AD14"/>
-    <mergeCell ref="AE12:AE14"/>
-    <mergeCell ref="AF12:AF14"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="AG12:AG14"/>
-    <mergeCell ref="AH12:AH14"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="Y12:Y14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="S16:T16"/>
   </mergeCells>
   <pageMargins left="0.12" right="0.12" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
@@ -3464,12 +3494,12 @@
       <c r="E7" s="34"/>
     </row>
     <row r="8" spans="2:5" ht="15.75">
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
     </row>
     <row r="9" spans="2:5" ht="15.75">
       <c r="B9" s="38"/>
@@ -3559,14 +3589,14 @@
       <c r="E17" s="34"/>
     </row>
     <row r="18" spans="2:8" ht="15.75">
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="114" t="s">
+      <c r="C18" s="115"/>
+      <c r="D18" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="114"/>
+      <c r="E18" s="116"/>
     </row>
     <row r="19" spans="2:8" ht="9" customHeight="1">
       <c r="B19" s="48"/>
@@ -3842,10 +3872,10 @@
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="2:8" ht="15.75">
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="116"/>
+      <c r="C43" s="118"/>
       <c r="D43" s="52"/>
       <c r="E43" s="52">
         <f>+SUD!W15</f>
@@ -3994,10 +4024,10 @@
       <c r="E57" s="85"/>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="117" t="s">
+      <c r="B58" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="117"/>
+      <c r="C58" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="5">
